--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
@@ -525,22 +525,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.14444</v>
+        <v>0.01028766666666667</v>
       </c>
       <c r="H2">
-        <v>0.43332</v>
+        <v>0.030863</v>
       </c>
       <c r="I2">
-        <v>0.06801140868936309</v>
+        <v>0.004475330795722314</v>
       </c>
       <c r="J2">
-        <v>0.06801140868936309</v>
+        <v>0.004475330795722313</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -549,28 +549,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06912333333333333</v>
+        <v>0.013559</v>
       </c>
       <c r="N2">
-        <v>0.20737</v>
+        <v>0.040677</v>
       </c>
       <c r="O2">
-        <v>0.01464591175868182</v>
+        <v>0.01041720286693961</v>
       </c>
       <c r="P2">
-        <v>0.01464591175868182</v>
+        <v>0.01041720286693961</v>
       </c>
       <c r="Q2">
-        <v>0.009984174266666666</v>
+        <v>0.0001394904723333334</v>
       </c>
       <c r="R2">
-        <v>0.0898575684</v>
+        <v>0.001255414251</v>
       </c>
       <c r="S2">
-        <v>0.0009960890902480576</v>
+        <v>4.662042879570163E-05</v>
       </c>
       <c r="T2">
-        <v>0.0009960890902480579</v>
+        <v>4.662042879570163E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.14444</v>
+        <v>0.01028766666666667</v>
       </c>
       <c r="H3">
-        <v>0.43332</v>
+        <v>0.030863</v>
       </c>
       <c r="I3">
-        <v>0.06801140868936309</v>
+        <v>0.004475330795722314</v>
       </c>
       <c r="J3">
-        <v>0.06801140868936309</v>
+        <v>0.004475330795722313</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,28 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.65051</v>
+        <v>1.288038</v>
       </c>
       <c r="N3">
-        <v>13.95153</v>
+        <v>3.864114</v>
       </c>
       <c r="O3">
-        <v>0.9853540882413181</v>
+        <v>0.9895827971330603</v>
       </c>
       <c r="P3">
-        <v>0.9853540882413182</v>
+        <v>0.9895827971330604</v>
       </c>
       <c r="Q3">
-        <v>0.6717196644</v>
+        <v>0.013250905598</v>
       </c>
       <c r="R3">
-        <v>6.045476979600001</v>
+        <v>0.119258150382</v>
       </c>
       <c r="S3">
-        <v>0.06701531959911503</v>
+        <v>0.004428710366926612</v>
       </c>
       <c r="T3">
-        <v>0.06701531959911504</v>
+        <v>0.004428710366926611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.979321333333333</v>
+        <v>2.288462333333333</v>
       </c>
       <c r="H4">
-        <v>5.937964</v>
+        <v>6.865386999999999</v>
       </c>
       <c r="I4">
-        <v>0.9319885913106368</v>
+        <v>0.9955246692042776</v>
       </c>
       <c r="J4">
-        <v>0.9319885913106369</v>
+        <v>0.9955246692042776</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -673,28 +673,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.06912333333333333</v>
+        <v>0.013559</v>
       </c>
       <c r="N4">
-        <v>0.20737</v>
+        <v>0.040677</v>
       </c>
       <c r="O4">
-        <v>0.01464591175868182</v>
+        <v>0.01041720286693961</v>
       </c>
       <c r="P4">
-        <v>0.01464591175868182</v>
+        <v>0.01041720286693961</v>
       </c>
       <c r="Q4">
-        <v>0.1368172882977778</v>
+        <v>0.03102926077766666</v>
       </c>
       <c r="R4">
-        <v>1.23135559468</v>
+        <v>0.279263346999</v>
       </c>
       <c r="S4">
-        <v>0.01364982266843376</v>
+        <v>0.01037058243814391</v>
       </c>
       <c r="T4">
-        <v>0.01364982266843376</v>
+        <v>0.01037058243814391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.979321333333333</v>
+        <v>2.288462333333333</v>
       </c>
       <c r="H5">
-        <v>5.937964</v>
+        <v>6.865386999999999</v>
       </c>
       <c r="I5">
-        <v>0.9319885913106368</v>
+        <v>0.9955246692042776</v>
       </c>
       <c r="J5">
-        <v>0.9319885913106369</v>
+        <v>0.9955246692042776</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.65051</v>
+        <v>1.288038</v>
       </c>
       <c r="N5">
-        <v>13.95153</v>
+        <v>3.864114</v>
       </c>
       <c r="O5">
-        <v>0.9853540882413181</v>
+        <v>0.9895827971330603</v>
       </c>
       <c r="P5">
-        <v>0.9853540882413182</v>
+        <v>0.9895827971330604</v>
       </c>
       <c r="Q5">
-        <v>9.204853653879999</v>
+        <v>2.947626446901999</v>
       </c>
       <c r="R5">
-        <v>82.84368288492</v>
+        <v>26.528638022118</v>
       </c>
       <c r="S5">
-        <v>0.918338768642203</v>
+        <v>0.9851540867661336</v>
       </c>
       <c r="T5">
-        <v>0.9183387686422032</v>
+        <v>0.9851540867661337</v>
       </c>
     </row>
   </sheetData>
